--- a/3/5/3/Otros 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Otros 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t>Serie</t>
   </si>
@@ -1154,6 +1154,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4549,6 +4552,14 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Otros 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Otros 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t>Serie</t>
   </si>
@@ -1157,6 +1157,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4560,6 +4563,14 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Otros 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Otros 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>Serie</t>
   </si>
@@ -1160,6 +1160,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4571,6 +4574,14 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Otros 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Otros 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t>Serie</t>
   </si>
@@ -1163,6 +1163,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4582,6 +4585,14 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
